--- a/exports/confirmed_students.xlsx
+++ b/exports/confirmed_students.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>Student ID</t>
   </si>
@@ -46,6 +46,105 @@
     <t>Updated At</t>
   </si>
   <si>
+    <t>4875</t>
+  </si>
+  <si>
+    <t>bong</t>
+  </si>
+  <si>
+    <t>mayor</t>
+  </si>
+  <si>
+    <t>bsit</t>
+  </si>
+  <si>
+    <t>bong@gmail.com</t>
+  </si>
+  <si>
+    <t>09385771857</t>
+  </si>
+  <si>
+    <t>52164</t>
+  </si>
+  <si>
+    <t>8521</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>AB ENGLISH</t>
+  </si>
+  <si>
+    <t>po@gmail.com</t>
+  </si>
+  <si>
+    <t>06419416</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>alexa</t>
+  </si>
+  <si>
+    <t>llena</t>
+  </si>
+  <si>
+    <t>BTVTED</t>
+  </si>
+  <si>
+    <t>alexa@gmail.com</t>
+  </si>
+  <si>
+    <t>302564610</t>
+  </si>
+  <si>
+    <t>52037</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>R-Jay</t>
+  </si>
+  <si>
+    <t>dalisay</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>janine@gmail.com</t>
+  </si>
+  <si>
+    <t>1880605163</t>
+  </si>
+  <si>
+    <t>5203</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>kervin</t>
+  </si>
+  <si>
+    <t>de chavez</t>
+  </si>
+  <si>
+    <t>Seaman</t>
+  </si>
+  <si>
+    <t>kervin@gmail.com</t>
+  </si>
+  <si>
+    <t>096214314</t>
+  </si>
+  <si>
     <t>1919</t>
   </si>
   <si>
@@ -85,9 +184,6 @@
     <t>0979646168</t>
   </si>
   <si>
-    <t>5203</t>
-  </si>
-  <si>
     <t>9999</t>
   </si>
   <si>
@@ -97,12 +193,6 @@
     <t>sdsds</t>
   </si>
   <si>
-    <t>bsit</t>
-  </si>
-  <si>
-    <t>janine@gmail.com</t>
-  </si>
-  <si>
     <t>0565154</t>
   </si>
   <si>
@@ -127,22 +217,172 @@
     <t>janine</t>
   </si>
   <si>
-    <t>dalisay</t>
-  </si>
-  <si>
     <t>5643</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>R-Jay</t>
-  </si>
-  <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>1880605163</t>
+    <t>STU010</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>BS Biology</t>
+  </si>
+  <si>
+    <t>sonia.ramos@gmail.com</t>
+  </si>
+  <si>
+    <t>09261234567</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>STU007</t>
+  </si>
+  <si>
+    <t>Rica</t>
+  </si>
+  <si>
+    <t>dela Rosa</t>
+  </si>
+  <si>
+    <t>BS Education</t>
+  </si>
+  <si>
+    <t>rica.delarosa@gmail.com</t>
+  </si>
+  <si>
+    <t>09231234567</t>
+  </si>
+  <si>
+    <t>5206</t>
+  </si>
+  <si>
+    <t>STU005</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>BS Mechanical Eng</t>
+  </si>
+  <si>
+    <t>carla.gomez@gmail.com</t>
+  </si>
+  <si>
+    <t>09211234567</t>
+  </si>
+  <si>
+    <t>5204</t>
+  </si>
+  <si>
+    <t>STU003</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>BS Civil Engineering</t>
+  </si>
+  <si>
+    <t>peter.santos@gmail.com</t>
+  </si>
+  <si>
+    <t>09191234567</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>STU009</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>BS Psychology</t>
+  </si>
+  <si>
+    <t>james.navarro@gmail.com</t>
+  </si>
+  <si>
+    <t>09251234567</t>
+  </si>
+  <si>
+    <t>5208</t>
+  </si>
+  <si>
+    <t>STU008</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>BS Computer Science</t>
+  </si>
+  <si>
+    <t>leo.francisco@gmail.com</t>
+  </si>
+  <si>
+    <t>09241234567</t>
+  </si>
+  <si>
+    <t>5207</t>
+  </si>
+  <si>
+    <t>STU001</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Dela Cruz</t>
+  </si>
+  <si>
+    <t>juan.delacruz@gmail.com</t>
+  </si>
+  <si>
+    <t>09171234567</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>STU002</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>BS Information Systems</t>
+  </si>
+  <si>
+    <t>maria.reyes@gmail.com</t>
+  </si>
+  <si>
+    <t>09181234567</t>
+  </si>
+  <si>
+    <t>5201</t>
   </si>
 </sst>
 </file>
@@ -520,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -574,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>9874</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -598,10 +838,10 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1">
-        <v>45623.55909722223</v>
+        <v>45628.76008101852</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -609,69 +849,69 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" s="1">
-        <v>45620.41775462963</v>
+        <v>45628.63712962963</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
       <c r="J4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
-        <v>45614.55230324074</v>
+        <v>45627.51574074074</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -679,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -691,92 +931,512 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>45614.54986111111</v>
+        <v>45624.67655092593</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1">
-        <v>45614.5452662037</v>
+        <v>45624.65170138889</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45623.55909722223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45620.41775462963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45614.55230324074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45614.54986111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45614.5452662037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12">
         <v>24</v>
       </c>
-      <c r="J7">
+      <c r="K12" s="1">
+        <v>45614.29166666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45614.22916666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="K7" s="1">
-        <v>45614.54474537037</v>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45614.1875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45614.14583333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45553.27083333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45491.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45461.10416666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45309.125</v>
       </c>
     </row>
   </sheetData>
